--- a/data/trans_bre/P62-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P62-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-7.773044761684883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.438445922544921</v>
+        <v>-2.438445922544918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.4989261443515516</v>
@@ -649,7 +649,7 @@
         <v>-0.2057291855672247</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1111280940590107</v>
+        <v>-0.1111280940590105</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-36.62120770947794</v>
+        <v>-35.73613414875526</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.89102474512367</v>
+        <v>-20.58072612733672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-18.59221119658865</v>
+        <v>-18.39590385914029</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-11.09195837007814</v>
+        <v>-11.75344802022698</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6469142282555392</v>
+        <v>-0.6440336877743661</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3864036085555043</v>
+        <v>-0.4084127088380095</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4342952952803226</v>
+        <v>-0.4240178450703623</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3959298992731322</v>
+        <v>-0.4135730017479484</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-13.40747981669819</v>
+        <v>-11.85146530946838</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.914523476004525</v>
+        <v>2.015050564024625</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.910774824056576</v>
+        <v>2.368375924043691</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.128231436492774</v>
+        <v>5.187866905080709</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3107962521054218</v>
+        <v>-0.2865375827142206</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04737558016123432</v>
+        <v>0.04208592880581022</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1224229919979789</v>
+        <v>0.07462395156546291</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3079445034476272</v>
+        <v>0.3171040651839259</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-22.67856470999849</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-17.77550856680388</v>
+        <v>-17.77550856680386</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.609294123026097</v>
@@ -749,7 +749,7 @@
         <v>-0.4998596148041332</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.3372323721415614</v>
+        <v>-0.3372323721415612</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-41.11764655342952</v>
+        <v>-41.21427733539665</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-24.11399544862373</v>
+        <v>-24.52765276414778</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-29.37926275564534</v>
+        <v>-29.70883312888083</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-26.74221309686172</v>
+        <v>-26.08292533999424</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6851512965587517</v>
+        <v>-0.6893115870748657</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5537816787227142</v>
+        <v>-0.5618038920301806</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6037712733268061</v>
+        <v>-0.6040213889949604</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4493133645733538</v>
+        <v>-0.4457218058156706</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-25.37213239785989</v>
+        <v>-25.06924405432101</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-9.978842975489604</v>
+        <v>-9.508851300666999</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-14.69804125448904</v>
+        <v>-15.09717477727144</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-8.551503941559854</v>
+        <v>-8.888097867859489</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.5069424916723759</v>
+        <v>-0.500499583042803</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2779863867773902</v>
+        <v>-0.2752739980505168</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3557496322811637</v>
+        <v>-0.3643709839581702</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.174817965639922</v>
+        <v>-0.1947628375105216</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-35.1846845655071</v>
+        <v>-35.5311755082386</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-26.14831108745024</v>
+        <v>-25.97991248897088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-25.51466019196134</v>
+        <v>-25.1271615893235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-26.30735261432873</v>
+        <v>-26.2856420267321</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6017701875126322</v>
+        <v>-0.607815245431963</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5135874208975838</v>
+        <v>-0.5107576474171526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4803911970121785</v>
+        <v>-0.4710038521571372</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4436738072545783</v>
+        <v>-0.4335691755693851</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-15.73971949943929</v>
+        <v>-14.84440930009345</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-7.405942245481321</v>
+        <v>-6.109672513391804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-7.165517599266509</v>
+        <v>-6.227474302764787</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-8.460056381843367</v>
+        <v>-8.529994873365665</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.3280864537561586</v>
+        <v>-0.3118162869751218</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1828222300675816</v>
+        <v>-0.1559410181563165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.1619185422550223</v>
+        <v>-0.1432821360062934</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1747452886578555</v>
+        <v>-0.1673732871436407</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>-0.2901137310461065</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3577631768629481</v>
+        <v>-0.357763176862948</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-35.0197087060735</v>
+        <v>-34.71177099367355</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-17.44772090603772</v>
+        <v>-17.76153338429654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-19.30489609927726</v>
+        <v>-19.38272193506655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-30.99879145936783</v>
+        <v>-30.61112297601715</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5978668097320644</v>
+        <v>-0.6010111095840273</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.35907650613574</v>
+        <v>-0.3501829636796609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4577906346334599</v>
+        <v>-0.4539543281262348</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4805723423198168</v>
+        <v>-0.476135854610041</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-14.88555417306703</v>
+        <v>-14.90310222257524</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6215375146913062</v>
+        <v>0.2469789711223234</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.217351918395434</v>
+        <v>-2.274053809006754</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-8.908128323466572</v>
+        <v>-9.157016936170653</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.3199339127235943</v>
+        <v>-0.3232070384334501</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01765516727533458</v>
+        <v>0.01442256844540265</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.08485755139191457</v>
+        <v>-0.06821446436784283</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1850304484295475</v>
+        <v>-0.1826143325238069</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-15.9376776517795</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-7.54903574442925</v>
+        <v>-7.549035744429261</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5743681150537043</v>
@@ -1049,7 +1049,7 @@
         <v>-0.3112389614055853</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1568331079835327</v>
+        <v>-0.1568331079835329</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-43.01938884147501</v>
+        <v>-43.08229524355738</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-20.21621622424989</v>
+        <v>-20.97617161064989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-25.95385935901998</v>
+        <v>-25.9896368905162</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-20.06078810657646</v>
+        <v>-19.95005620008155</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.712157719603253</v>
+        <v>-0.7038900880799942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4674155547164957</v>
+        <v>-0.4603966499180414</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4648782481528473</v>
+        <v>-0.4745410362087296</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3516644417269201</v>
+        <v>-0.34764810927437</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-17.28182398090173</v>
+        <v>-17.78117817532693</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.337699564276545</v>
+        <v>1.616202951737675</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.62869212151596</v>
+        <v>-3.602078976069236</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.375652808230797</v>
+        <v>4.881043718388113</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.38025532503285</v>
+        <v>-0.3836641941617179</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04454871095753543</v>
+        <v>0.05596854367350765</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.06318577500191437</v>
+        <v>-0.08517632764690121</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1094744230402296</v>
+        <v>0.1219665865364753</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-24.54678297047812</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-23.99597043052966</v>
+        <v>-23.99597043052964</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.5622281087819513</v>
@@ -1149,7 +1149,7 @@
         <v>-0.5166499371814244</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.4084681115430402</v>
+        <v>-0.40846811154304</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-41.34766371534146</v>
+        <v>-41.15457859778709</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-31.0629568020873</v>
+        <v>-31.34706298497564</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-36.73345162646567</v>
+        <v>-34.68840333145547</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-32.867399092743</v>
+        <v>-32.41298429776568</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6767029278882981</v>
+        <v>-0.668452080530527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5799059682748083</v>
+        <v>-0.5810453474377399</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6763939757813366</v>
+        <v>-0.6557149479312895</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5124734948789907</v>
+        <v>-0.5066869651953206</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-19.08762148456124</v>
+        <v>-19.46646864282946</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-11.08034294055898</v>
+        <v>-11.43798624266266</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-15.66628112220049</v>
+        <v>-13.84590640582522</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-14.74404280794521</v>
+        <v>-13.54020228612618</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3994841945643341</v>
+        <v>-0.3952062077516973</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2491104878125504</v>
+        <v>-0.2708382631510787</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.3573580539976042</v>
+        <v>-0.3289693760561954</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.285622525533274</v>
+        <v>-0.2616343394582119</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-13.94827736002616</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-14.55033538821114</v>
+        <v>-14.55033538821112</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.4925479630523962</v>
@@ -1249,7 +1249,7 @@
         <v>-0.2661397693681977</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.2528844365879266</v>
+        <v>-0.2528844365879263</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-32.52057024548202</v>
+        <v>-32.12788908342951</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-19.08815090973437</v>
+        <v>-18.43133871482865</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-22.10451119212711</v>
+        <v>-21.57336554611728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-22.77923314942953</v>
+        <v>-22.46744513007192</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.582192197155159</v>
+        <v>-0.579764832354615</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4205075465950681</v>
+        <v>-0.4059818752910854</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3946756611758664</v>
+        <v>-0.3852838148384892</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.357627587351405</v>
+        <v>-0.3595104176104548</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-18.38972544148364</v>
+        <v>-18.03702488429447</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-5.096718941936605</v>
+        <v>-5.000384810993757</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.89783789781344</v>
+        <v>-5.817069393931909</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-6.124296473203813</v>
+        <v>-5.42666881376682</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.385188580323333</v>
+        <v>-0.3841262035510878</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1333278778350133</v>
+        <v>-0.1309288745214425</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1441127601842197</v>
+        <v>-0.1187543555748018</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.1183590543228642</v>
+        <v>-0.1060975926204021</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-16.59874562139386</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-26.77983987024496</v>
+        <v>-26.77983987024498</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.6150770196034838</v>
@@ -1349,7 +1349,7 @@
         <v>-0.3457966104543033</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.4064032049895711</v>
+        <v>-0.4064032049895713</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-45.1460376338985</v>
+        <v>-44.57520577785225</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-26.41758723214978</v>
+        <v>-25.50733327570469</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-23.03820779923212</v>
+        <v>-23.02422297066836</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-33.55135285046806</v>
+        <v>-33.37970677690728</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6794354125703663</v>
+        <v>-0.6837869284793474</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5164691800532865</v>
+        <v>-0.5082818913106079</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.449959123180411</v>
+        <v>-0.4430760135350794</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4803903333050701</v>
+        <v>-0.4782067448851789</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-31.07263209005127</v>
+        <v>-30.71743621176408</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-13.27017724067762</v>
+        <v>-13.30113838310334</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-10.38268493800024</v>
+        <v>-10.22809724639691</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-20.10301369524937</v>
+        <v>-18.98128629978655</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.5357116044665748</v>
+        <v>-0.5396909825518036</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.305137808498339</v>
+        <v>-0.3072760677219411</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2324741562857006</v>
+        <v>-0.2287135357923452</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3302502334696783</v>
+        <v>-0.3167133611047021</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-16.17091929420479</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-18.28694625186626</v>
+        <v>-18.28694625186625</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.5484449197271321</v>
@@ -1449,7 +1449,7 @@
         <v>-0.3488456022258425</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.3316524983810746</v>
+        <v>-0.3316524983810745</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-32.90225692495298</v>
+        <v>-33.2513967814637</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-17.84820670234356</v>
+        <v>-17.9139581733117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-19.17570711618668</v>
+        <v>-19.38533137972955</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-21.71278876936281</v>
+        <v>-21.52473744607565</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.5848724466590308</v>
+        <v>-0.5852195637807648</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.391754396505019</v>
+        <v>-0.390469213131454</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.3985407052228603</v>
+        <v>-0.4063654857730677</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.3782026762981018</v>
+        <v>-0.3749665683360729</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-26.87588427877579</v>
+        <v>-26.92093112817996</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-12.09189059497292</v>
+        <v>-11.97845730338569</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-12.99276945620542</v>
+        <v>-13.31879964797899</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-14.96744908328019</v>
+        <v>-14.63782643480461</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.508741826220421</v>
+        <v>-0.5062074243687761</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.2835770602003047</v>
+        <v>-0.2824889069265732</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.2911255074941231</v>
+        <v>-0.2979790711031341</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.2826047204443661</v>
+        <v>-0.2798436304250175</v>
       </c>
     </row>
     <row r="31">
